--- a/pred_ohlcv/54_21/2020-01-22 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MBL ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>-373795.7097</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-373795.7097</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-334371.7097</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-380478.7097</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-338614.7097</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-338614.7097</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-365483.7097</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-365483.7097</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-336181.7097</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-336181.7097</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-381263.7097</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-373495.7097</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-341467.7097</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-341467.7097</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-386529.7097</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-386529.7097</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-344230.7097</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-385344.7097</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-443554.1951000001</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-403501.1951000001</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-509426.1951000001</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>193100.2470999999</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>198159.2470999999</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>167998.2470999999</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>128906.2470999999</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>173166.2470999999</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>173166.2470999999</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>253276.2470999999</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>1008838.561149739</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>1008838.561149739</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>967875.5611497394</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>988921.5611497394</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>1032249.561149739</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>1005937.561149739</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>965410.5611497394</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>965410.5611497394</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>933430.5611497394</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>890649.5611497394</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>805585.7488497394</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>762610.2779497395</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>803314.2779497395</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>835274.2779497395</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>835274.2779497395</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>798975.2779497395</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>831370.2779497395</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>789149.2779497395</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>738111.2779497395</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>738111.2779497395</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>698702.2779497395</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>669610.2779497395</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>624312.2779497395</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>624312.2779497395</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>718464.5618497395</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>765550.5618497395</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>765550.5618497395</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>719657.5618497395</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>719657.5618497395</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>623909.4696497396</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>598721.4696497396</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>598721.4696497396</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>576477.4696497396</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>617962.4696497396</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>574974.4696497396</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>574974.4696497396</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>532473.4696497396</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-599314.8563636569</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-599314.8563636569</v>
       </c>
       <c r="H1334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>-619990.8563636569</v>
       </c>
       <c r="H1342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>-619990.8563636569</v>
       </c>
       <c r="H1343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MBL ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>-365483.7097</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-365483.7097</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-336181.7097</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-381263.7097</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-381263.7097</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-373495.7097</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-341467.7097</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-341467.7097</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-386529.7097</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-386529.7097</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-189658.1913</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>193100.2470999999</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>198159.2470999999</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>167998.2470999999</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>128906.2470999999</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>173166.2470999999</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>173166.2470999999</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>253276.2470999999</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>525954.7713999999</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>1008838.561149739</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>1008838.561149739</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>967875.5611497394</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>988921.5611497394</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>1032249.561149739</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>1005937.561149739</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>965410.5611497394</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>965410.5611497394</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>933430.5611497394</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>890649.5611497394</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>805585.7488497394</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>762610.2779497395</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>803314.2779497395</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>835274.2779497395</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>835274.2779497395</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>798975.2779497395</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>831370.2779497395</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>789149.2779497395</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>738111.2779497395</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>698702.2779497395</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>718464.5618497395</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>765550.5618497395</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>765550.5618497395</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>719657.5618497395</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>719657.5618497395</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>623909.4696497396</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>598721.4696497396</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>598721.4696497396</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>576477.4696497396</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>617962.4696497396</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>574974.4696497396</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>574974.4696497396</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>529983.4696497396</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>572413.4696497396</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>572413.4696497396</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>532473.4696497396</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>532473.4696497396</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>561094.4696497396</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>561094.4696497396</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>523448.4696497396</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>523448.4696497396</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>652154.7026497396</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>567058.6343497395</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>522476.6343497395</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>376073.2219497395</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>417007.2219497395</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>388424.2219497395</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>410311.2219497395</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>425051.2219497395</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>425051.2219497395</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>387601.2219497395</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>645317.3194497395</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>674529.3194497395</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>674529.3194497395</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>695057.3194497395</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>649172.3194497395</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>627861.3194497395</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>627861.3194497395</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>587727.3194497395</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>446345.8613497395</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>482207.8613497395</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>460994.8613497395</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>428739.8613497395</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>410458.4852497395</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>428700.4852497395</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>454323.4852497395</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>454323.4852497395</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>454323.4852497395</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>505968.4852497395</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>451049.4852497395</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>451049.4852497395</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>451049.4852497395</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>406274.4852497395</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>364587.4852497395</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>364587.4852497395</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>425260.2222497396</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>384765.2222497396</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>432379.2222497396</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>419637.2222497396</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>643975.694136343</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>620503.694136343</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>641021.694136343</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>516181.694136343</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>467319.694136343</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>467319.694136343</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>467319.694136343</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>458854.694136343</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>422949.694136343</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>470820.694136343</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>493410.694136343</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>462171.694136343</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>422431.694136343</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>401812.694136343</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>432688.694136343</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>396721.694136343</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>418863.694136343</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>418863.694136343</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>464016.694136343</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>464016.694136343</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>489395.694136343</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>489395.694136343</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>446493.694136343</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>399805.694136343</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>377377.694136343</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>377377.694136343</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>383369.694136343</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>349261.839336343</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-599314.8563636569</v>
       </c>
       <c r="H1332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-599314.8563636569</v>
       </c>
       <c r="H1334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>-619990.8563636569</v>
       </c>
       <c r="H1342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>-619990.8563636569</v>
       </c>
       <c r="H1343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
